--- a/Software implementation and testing/5/Чек-листы.xlsx
+++ b/Software implementation and testing/5/Чек-листы.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Seva\GitHub\TSU_TASKS\Software implementation and testing\5\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="10400" yWindow="-120" windowWidth="12320" windowHeight="11390"/>
+    <workbookView xWindow="10395" yWindow="-120" windowWidth="12315" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="40">
   <si>
     <t>Тело сайта</t>
   </si>
@@ -44,42 +39,18 @@
     <t>При нажатии на кнопку с названием "Реклама" переходим на сайт с Рекламой</t>
   </si>
   <si>
-    <t xml:space="preserve">При наведении на кнопку с иконкой файла появляется надпись "Начать новый рассчёт" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Появляется кнопка-иконка файла , при нажатии на которую стираются исходные данные </t>
-  </si>
-  <si>
     <t>Проверить, что в навигационном меню при нажатии на надпись CALCUS.RU переходим на главную страницу сайта</t>
   </si>
   <si>
-    <t>Проверить, что при нажатии на жёлтую кнопку с иконкой звезды и надписью " В избранное" выплывает по середине форма "Добавить в избранное"</t>
-  </si>
-  <si>
     <t>Проверить, что при нажатии на чёрную кнопку с иконкой наклонной черты и надписью "Виджет" переходим на страницу сайта виджетов</t>
   </si>
   <si>
     <t>Проверить, что при нажатии на фиолетовую кнопку с иконкой двух стрелочек и надписью " API" переходим на страницу сайта API</t>
   </si>
   <si>
-    <t>Проверить, что при нажатии на оранжевую кнопку с иконкой молекулы и надписью "Поделиться" выплывает по середине форма "Поделиться"</t>
-  </si>
-  <si>
-    <t>Проверить, что при нажатии на ссылку с надписью "Сохранить расчет" с синей иконкой файла загрузки появляется по середине форма "Сохранить расчет"</t>
-  </si>
-  <si>
-    <t>Проверить, что при нажатии на ссылку с надписью "Печать"  с коричневой иконкой печатной машинки появляется по середине форма "Печать"</t>
-  </si>
-  <si>
     <t>Проверить, что при нажатии на ссылку с надписью  "Сообщить об ошибке" с красной иконкой восклицательного знака появляется по середине форма "Напишите нам"</t>
   </si>
   <si>
-    <t>Проверка на элементы кнопок которые появляются после нажатия кнопки "Ковертировать"</t>
-  </si>
-  <si>
-    <t>Проверка блока кнопок с иконками для дополнительных действий после рассчета</t>
-  </si>
-  <si>
     <t>Подвал страницы</t>
   </si>
   <si>
@@ -150,13 +121,31 @@
   </si>
   <si>
     <t>Проверить, что при нажатии на жёлтую кнопку с иконкой звезды и надписью " В избранное" для неавторизованного пользователя выплывает по середине предупреждение о необходимости регистрации</t>
+  </si>
+  <si>
+    <t>Google Chrome</t>
+  </si>
+  <si>
+    <t>Yandex</t>
+  </si>
+  <si>
+    <t>Примечания</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Возможно ввести лишь символ "-", при чем только самым первым.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,8 +195,42 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,6 +247,12 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -231,21 +260,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -264,25 +278,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
-      </right>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -296,7 +321,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -311,42 +336,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -623,7 +659,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -633,978 +669,1134 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="103.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.453125" customWidth="1"/>
-    <col min="3" max="3" width="49.54296875" customWidth="1"/>
-    <col min="4" max="4" width="48.453125" customWidth="1"/>
-    <col min="8" max="8" width="75.54296875" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="103.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.42578125" customWidth="1"/>
+    <col min="3" max="3" width="49.5703125" customWidth="1"/>
+    <col min="4" max="4" width="48.42578125" customWidth="1"/>
+    <col min="8" max="8" width="75.5703125" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>36</v>
+      </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="1"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="12"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="B2" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="22"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="1"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="12"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="D3" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="22"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="1"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="12"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="D4" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="22"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="1"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="12"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="D5" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="22"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="1"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="12"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="D6" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="22"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="1"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="12"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="B7" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="22"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="1"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="12"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="D8" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="22"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="1"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="12"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="D9" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="22"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="1"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="12"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="D10" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="22"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="1"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="12"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="D11" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>39</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="1"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="12"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="D12" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="22"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="1"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="12"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="D13" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="22"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="1"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="12"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="D14" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="22"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="1"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="12"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="D15" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="22"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="1"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="12"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="D16" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="22"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="1"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="12"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="D17" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="22"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="1"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="12"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="D18" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="22"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="1"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="12"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="D19" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="22"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="1"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="12"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="D20" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="22"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="1"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="12"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="D21" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="22"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="1"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="12"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="D22" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="22"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="1"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="12"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="22"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="1"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="12"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="22"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="1"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="12"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="22"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="1"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="12"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="22"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="1"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="12"/>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="D27" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="22"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="12"/>
+      <c r="H27" s="8"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="22"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-      <c r="H28" s="12"/>
+      <c r="H28" s="8"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="D29" s="2"/>
+    <row r="29" spans="1:13" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="22"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-      <c r="H29" s="12"/>
+      <c r="H29" s="8"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="D30" s="2"/>
+    <row r="30" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="22"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="H30" s="12"/>
+      <c r="H30" s="8"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="D31" s="2"/>
+      <c r="B31" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="22"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="H31" s="12"/>
+      <c r="H31" s="8"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="B32" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="22"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="12"/>
+      <c r="H32" s="8"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="D33" s="2"/>
+      <c r="B33" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="22"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="12"/>
+      <c r="H33" s="8"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="D34" s="2"/>
+      <c r="B34" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="22"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="12"/>
+      <c r="H34" s="8"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35"/>
       <c r="B35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-      <c r="H35" s="12"/>
+      <c r="H35" s="8"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36"/>
       <c r="B36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="12"/>
+      <c r="H36" s="8"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="8"/>
-    </row>
-    <row r="38" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="8"/>
-    </row>
-    <row r="39" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="8"/>
-    </row>
-    <row r="40" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="8"/>
-    </row>
-    <row r="41" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="8"/>
-    </row>
-    <row r="42" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="8"/>
-    </row>
-    <row r="43" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="8"/>
-    </row>
-    <row r="44" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="8"/>
-    </row>
-    <row r="45" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="8"/>
-    </row>
-    <row r="46" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+    </row>
+    <row r="38" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+    </row>
+    <row r="39" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+    </row>
+    <row r="40" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+    </row>
+    <row r="41" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+    </row>
+    <row r="42" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+    </row>
+    <row r="43" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+    </row>
+    <row r="44" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+    </row>
+    <row r="45" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="6"/>
+    </row>
+    <row r="46" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
-      <c r="H46" s="12"/>
+      <c r="H46" s="8"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
     </row>
-    <row r="47" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
-      <c r="H47" s="12"/>
+      <c r="H47" s="8"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
     </row>
-    <row r="48" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="3"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
-      <c r="H48" s="12"/>
+      <c r="H48" s="8"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="3"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
-      <c r="H49" s="12"/>
+      <c r="H49" s="8"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
     </row>
-    <row r="50" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="3"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
-      <c r="H50" s="12"/>
+      <c r="H50" s="8"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="3"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
-      <c r="H51" s="12"/>
+      <c r="H51" s="8"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
     </row>
-    <row r="52" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="3"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
-      <c r="H52" s="12"/>
+      <c r="H52" s="8"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
     </row>
-    <row r="53" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
-      <c r="H53" s="12"/>
+      <c r="H53" s="8"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
     </row>
-    <row r="54" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="3"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
-      <c r="H54" s="12"/>
+      <c r="H54" s="8"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
     </row>
-    <row r="55" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="3"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
-      <c r="H55" s="12"/>
+      <c r="H55" s="8"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
     </row>
-    <row r="56" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
-      <c r="H56" s="12"/>
+      <c r="H56" s="8"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
     </row>
-    <row r="57" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
-      <c r="H57" s="12"/>
+      <c r="H57" s="8"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
     </row>
-    <row r="58" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="4"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
-      <c r="H58" s="12"/>
+      <c r="H58" s="8"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
     </row>
-    <row r="59" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
-      <c r="H59" s="12"/>
+      <c r="H59" s="8"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
     </row>
-    <row r="60" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
-      <c r="H60" s="12"/>
+      <c r="H60" s="8"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
     </row>
-    <row r="61" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
-      <c r="H61" s="12"/>
+      <c r="H61" s="8"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
     </row>
-    <row r="62" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
-      <c r="H62" s="12"/>
+      <c r="H62" s="8"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
     </row>
-    <row r="63" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
-      <c r="H63" s="12"/>
+      <c r="H63" s="8"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
     </row>
-    <row r="64" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
-      <c r="H64" s="12"/>
+      <c r="H64" s="8"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
     </row>
-    <row r="65" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
-      <c r="H65" s="12"/>
+      <c r="H65" s="8"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
     </row>
-    <row r="66" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
-      <c r="H66" s="12"/>
+      <c r="H66" s="8"/>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
     </row>
-    <row r="67" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
-      <c r="H67" s="12"/>
+      <c r="H67" s="8"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
     </row>
-    <row r="68" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
-      <c r="H68" s="12"/>
+      <c r="H68" s="8"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
     </row>
-    <row r="69" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
-      <c r="H69" s="12"/>
+      <c r="H69" s="8"/>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
     </row>
-    <row r="70" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
-      <c r="H70" s="12"/>
+      <c r="H70" s="8"/>
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
     </row>
-    <row r="71" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
-      <c r="H71" s="12"/>
+      <c r="H71" s="8"/>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
     </row>
-    <row r="72" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
-      <c r="H72" s="12"/>
+      <c r="H72" s="8"/>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
